--- a/enmconvertor/src/site/resources/templates/PCHEM/SIZE/PCHEM_SIZE_size SAXS_COLUMNS.xlsx
+++ b/enmconvertor/src/site/resources/templates/PCHEM/SIZE/PCHEM_SIZE_size SAXS_COLUMNS.xlsx
@@ -19,6 +19,11 @@
     <author>size SAXS</author>
   </authors>
   <commentList>
+    <comment ref="AG1" authorId="1">
+      <text>
+        <t>Standard operation procedure</t>
+      </text>
+    </comment>
     <comment ref="B2" authorId="1">
       <text>
         <t>e.g. nm-300, jrcnm01001a, ...</t>
@@ -69,6 +74,16 @@
         <t>(ex: nanovalid mts protocol)</t>
       </text>
     </comment>
+    <comment ref="AD2" authorId="1">
+      <text>
+        <t>SD</t>
+      </text>
+    </comment>
+    <comment ref="AF2" authorId="1">
+      <text>
+        <t>SD</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -79,6 +94,18 @@
     <t>SAMPLE INFORMATION</t>
   </si>
   <si>
+    <t>SPECIMENT PREPARATION</t>
+  </si>
+  <si>
+    <t>METHOD AND INSTRUMENT INFORMATION</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>SOP</t>
+  </si>
+  <si>
     <t>Replicate number</t>
   </si>
   <si>
@@ -130,18 +157,12 @@
     <t>Assay name</t>
   </si>
   <si>
-    <t>SPECIMENT PREPARATION</t>
-  </si>
-  <si>
     <t>Protocol ref  = sop</t>
   </si>
   <si>
     <t>Date of acquisition</t>
   </si>
   <si>
-    <t>METHOD AND INSTRUMENT INFORMATION</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -172,19 +193,13 @@
     <t>nm</t>
   </si>
   <si>
-    <t>RESULTS</t>
-  </si>
-  <si>
     <t>Mean particle size</t>
   </si>
   <si>
-    <t>Sd</t>
+    <t>Associated uncertainty</t>
   </si>
   <si>
     <t>Mean crystallite size</t>
-  </si>
-  <si>
-    <t>SOP</t>
   </si>
   <si>
     <t>References to sops</t>
@@ -643,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="675">
+  <cellXfs count="674">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
@@ -653,7 +668,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyBorder="true" applyFill="true"/>
@@ -1397,795 +1411,795 @@
     <col min="27" max="27" width="8.015625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="11.75390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="3.12890625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="21.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="19.05078125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="3.12890625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="21.4140625" customWidth="true" bestFit="true"/>
     <col min="33" max="33" width="17.73828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="50.0" customHeight="true">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="386" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="374"/>
-      <c r="C1" s="375"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="377"/>
-      <c r="F1" s="378"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="381"/>
-      <c r="J1" s="382"/>
-      <c r="K1" s="383"/>
-      <c r="L1" s="384"/>
-      <c r="M1" s="385"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="314"/>
-      <c r="Q1" s="315"/>
-      <c r="R1" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="93"/>
-      <c r="T1" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="95"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="655" t="s">
-        <v>36</v>
+      <c r="B1" s="373"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="375"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="380"/>
+      <c r="J1" s="381"/>
+      <c r="K1" s="382"/>
+      <c r="L1" s="383"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="385"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="313"/>
+      <c r="Q1" s="314"/>
+      <c r="R1" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="92"/>
+      <c r="T1" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="94"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="654" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="388" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="389" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="390" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="391" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="392" t="s">
+      <c r="A2" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="393" t="s">
+      <c r="B2" s="388" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="394" t="s">
+      <c r="C2" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="395" t="s">
+      <c r="D2" s="390" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="396" t="s">
+      <c r="E2" s="391" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="397" t="s">
+      <c r="F2" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="G2" s="393" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="399" t="s">
+      <c r="H2" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="400" t="s">
+      <c r="I2" s="395" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="401" t="s">
+      <c r="J2" s="396" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="316" t="s">
+      <c r="K2" s="397" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="317" t="s">
+      <c r="L2" s="398" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="318" t="s">
+      <c r="M2" s="399" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="104" t="s">
+      <c r="N2" s="400" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="315" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="105" t="s">
+      <c r="P2" s="316" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="106" t="s">
+      <c r="Q2" s="317" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="107" t="s">
+      <c r="S2" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="108" t="s">
+      <c r="T2" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="109" t="s">
+      <c r="U2" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="110" t="s">
+      <c r="V2" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="111" t="s">
+      <c r="W2" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="112" t="s">
+      <c r="X2" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="113" t="s">
+      <c r="Y2" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="114" t="s">
+      <c r="Z2" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AA2" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AD2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG2" s="656" t="s">
+      <c r="AE2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="655" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="402"/>
-      <c r="B3" s="403"/>
-      <c r="C3" s="404"/>
-      <c r="D3" s="405"/>
-      <c r="E3" s="406"/>
-      <c r="F3" s="407"/>
-      <c r="G3" s="408"/>
-      <c r="H3" s="409"/>
-      <c r="I3" s="410"/>
-      <c r="J3" s="411"/>
-      <c r="K3" s="412"/>
-      <c r="L3" s="413"/>
-      <c r="M3" s="414"/>
-      <c r="N3" s="415"/>
-      <c r="O3" s="319"/>
-      <c r="P3" s="320"/>
-      <c r="Q3" s="321"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="657"/>
+      <c r="A3" s="401"/>
+      <c r="B3" s="402"/>
+      <c r="C3" s="403"/>
+      <c r="D3" s="404"/>
+      <c r="E3" s="405"/>
+      <c r="F3" s="406"/>
+      <c r="G3" s="407"/>
+      <c r="H3" s="408"/>
+      <c r="I3" s="409"/>
+      <c r="J3" s="410"/>
+      <c r="K3" s="411"/>
+      <c r="L3" s="412"/>
+      <c r="M3" s="413"/>
+      <c r="N3" s="414"/>
+      <c r="O3" s="318"/>
+      <c r="P3" s="319"/>
+      <c r="Q3" s="320"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="656"/>
     </row>
     <row r="4">
-      <c r="A4" s="416"/>
-      <c r="B4" s="417"/>
-      <c r="C4" s="418"/>
-      <c r="D4" s="419"/>
-      <c r="E4" s="420"/>
-      <c r="F4" s="421"/>
-      <c r="G4" s="422"/>
-      <c r="H4" s="423"/>
-      <c r="I4" s="424"/>
-      <c r="J4" s="425"/>
-      <c r="K4" s="426"/>
-      <c r="L4" s="427"/>
-      <c r="M4" s="428"/>
-      <c r="N4" s="429"/>
-      <c r="O4" s="322"/>
-      <c r="P4" s="323"/>
-      <c r="Q4" s="324"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="658"/>
+      <c r="A4" s="415"/>
+      <c r="B4" s="416"/>
+      <c r="C4" s="417"/>
+      <c r="D4" s="418"/>
+      <c r="E4" s="419"/>
+      <c r="F4" s="420"/>
+      <c r="G4" s="421"/>
+      <c r="H4" s="422"/>
+      <c r="I4" s="423"/>
+      <c r="J4" s="424"/>
+      <c r="K4" s="425"/>
+      <c r="L4" s="426"/>
+      <c r="M4" s="427"/>
+      <c r="N4" s="428"/>
+      <c r="O4" s="321"/>
+      <c r="P4" s="322"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="135"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="657"/>
     </row>
     <row r="5">
-      <c r="A5" s="430"/>
-      <c r="B5" s="431"/>
-      <c r="C5" s="432"/>
-      <c r="D5" s="433"/>
-      <c r="E5" s="434"/>
-      <c r="F5" s="435"/>
-      <c r="G5" s="436"/>
-      <c r="H5" s="437"/>
-      <c r="I5" s="438"/>
-      <c r="J5" s="439"/>
-      <c r="K5" s="440"/>
-      <c r="L5" s="441"/>
-      <c r="M5" s="442"/>
-      <c r="N5" s="443"/>
-      <c r="O5" s="325"/>
-      <c r="P5" s="326"/>
-      <c r="Q5" s="327"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" t="s" s="147">
-        <v>31</v>
-      </c>
-      <c r="AC5" t="s" s="26">
-        <v>31</v>
-      </c>
-      <c r="AD5" s="27"/>
-      <c r="AE5" t="s" s="28">
-        <v>31</v>
-      </c>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="659"/>
+      <c r="A5" s="429"/>
+      <c r="B5" s="430"/>
+      <c r="C5" s="431"/>
+      <c r="D5" s="432"/>
+      <c r="E5" s="433"/>
+      <c r="F5" s="434"/>
+      <c r="G5" s="435"/>
+      <c r="H5" s="436"/>
+      <c r="I5" s="437"/>
+      <c r="J5" s="438"/>
+      <c r="K5" s="439"/>
+      <c r="L5" s="440"/>
+      <c r="M5" s="441"/>
+      <c r="N5" s="442"/>
+      <c r="O5" s="324"/>
+      <c r="P5" s="325"/>
+      <c r="Q5" s="326"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="138"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="144"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" t="s" s="146">
+        <v>33</v>
+      </c>
+      <c r="AC5" t="s" s="25">
+        <v>33</v>
+      </c>
+      <c r="AD5" s="26"/>
+      <c r="AE5" t="s" s="27">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="658"/>
     </row>
     <row r="6">
-      <c r="A6" s="444"/>
-      <c r="B6" s="445"/>
-      <c r="C6" s="446"/>
-      <c r="D6" s="447"/>
-      <c r="E6" s="448"/>
-      <c r="F6" s="449"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="451"/>
-      <c r="I6" s="452"/>
-      <c r="J6" s="453"/>
-      <c r="K6" s="454"/>
-      <c r="L6" s="455"/>
-      <c r="M6" s="456"/>
-      <c r="N6" s="457"/>
-      <c r="O6" s="328"/>
-      <c r="P6" s="329"/>
-      <c r="Q6" s="330"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="154"/>
-      <c r="Y6" s="155"/>
-      <c r="Z6" s="156"/>
-      <c r="AA6" s="157"/>
-      <c r="AB6" s="158" t="n"/>
-      <c r="AC6" s="30" t="n"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="34" t="n"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="660"/>
+      <c r="A6" s="443"/>
+      <c r="B6" s="444"/>
+      <c r="C6" s="445"/>
+      <c r="D6" s="446"/>
+      <c r="E6" s="447"/>
+      <c r="F6" s="448"/>
+      <c r="G6" s="449"/>
+      <c r="H6" s="450"/>
+      <c r="I6" s="451"/>
+      <c r="J6" s="452"/>
+      <c r="K6" s="453"/>
+      <c r="L6" s="454"/>
+      <c r="M6" s="455"/>
+      <c r="N6" s="456"/>
+      <c r="O6" s="327"/>
+      <c r="P6" s="328"/>
+      <c r="Q6" s="329"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="148"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="153"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="155"/>
+      <c r="AA6" s="156"/>
+      <c r="AB6" s="157" t="n"/>
+      <c r="AC6" s="29" t="n"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="33" t="n"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="659"/>
     </row>
     <row r="7">
-      <c r="A7" s="458"/>
-      <c r="B7" s="459"/>
-      <c r="C7" s="460"/>
-      <c r="D7" s="461"/>
-      <c r="E7" s="462"/>
-      <c r="F7" s="463"/>
-      <c r="G7" s="464"/>
-      <c r="H7" s="465"/>
-      <c r="I7" s="466"/>
-      <c r="J7" s="467"/>
-      <c r="K7" s="468"/>
-      <c r="L7" s="469"/>
-      <c r="M7" s="470"/>
-      <c r="N7" s="471"/>
-      <c r="O7" s="331"/>
-      <c r="P7" s="332"/>
-      <c r="Q7" s="333"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="162"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="164"/>
-      <c r="X7" s="165"/>
-      <c r="Y7" s="166"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="168"/>
-      <c r="AB7" s="169" t="n"/>
-      <c r="AC7" s="36" t="n"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="38" t="n"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="661"/>
+      <c r="A7" s="457"/>
+      <c r="B7" s="458"/>
+      <c r="C7" s="459"/>
+      <c r="D7" s="460"/>
+      <c r="E7" s="461"/>
+      <c r="F7" s="462"/>
+      <c r="G7" s="463"/>
+      <c r="H7" s="464"/>
+      <c r="I7" s="465"/>
+      <c r="J7" s="466"/>
+      <c r="K7" s="467"/>
+      <c r="L7" s="468"/>
+      <c r="M7" s="469"/>
+      <c r="N7" s="470"/>
+      <c r="O7" s="330"/>
+      <c r="P7" s="331"/>
+      <c r="Q7" s="332"/>
+      <c r="R7" s="158"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="160"/>
+      <c r="U7" s="161"/>
+      <c r="V7" s="162"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="164"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="167"/>
+      <c r="AB7" s="168" t="n"/>
+      <c r="AC7" s="35" t="n"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="37" t="n"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="660"/>
     </row>
     <row r="8">
-      <c r="A8" s="472"/>
-      <c r="B8" s="473"/>
-      <c r="C8" s="474"/>
-      <c r="D8" s="475"/>
-      <c r="E8" s="476"/>
-      <c r="F8" s="477"/>
-      <c r="G8" s="478"/>
-      <c r="H8" s="479"/>
-      <c r="I8" s="480"/>
-      <c r="J8" s="481"/>
-      <c r="K8" s="482"/>
-      <c r="L8" s="483"/>
-      <c r="M8" s="484"/>
-      <c r="N8" s="485"/>
-      <c r="O8" s="334"/>
-      <c r="P8" s="335"/>
-      <c r="Q8" s="336"/>
-      <c r="R8" s="170"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="174"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="176"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="178"/>
-      <c r="AA8" s="179"/>
-      <c r="AB8" s="180" t="n"/>
-      <c r="AC8" s="40" t="n"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="42" t="n"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="662"/>
+      <c r="A8" s="471"/>
+      <c r="B8" s="472"/>
+      <c r="C8" s="473"/>
+      <c r="D8" s="474"/>
+      <c r="E8" s="475"/>
+      <c r="F8" s="476"/>
+      <c r="G8" s="477"/>
+      <c r="H8" s="478"/>
+      <c r="I8" s="479"/>
+      <c r="J8" s="480"/>
+      <c r="K8" s="481"/>
+      <c r="L8" s="482"/>
+      <c r="M8" s="483"/>
+      <c r="N8" s="484"/>
+      <c r="O8" s="333"/>
+      <c r="P8" s="334"/>
+      <c r="Q8" s="335"/>
+      <c r="R8" s="169"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="172"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="174"/>
+      <c r="X8" s="175"/>
+      <c r="Y8" s="176"/>
+      <c r="Z8" s="177"/>
+      <c r="AA8" s="178"/>
+      <c r="AB8" s="179" t="n"/>
+      <c r="AC8" s="39" t="n"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="41" t="n"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="661"/>
     </row>
     <row r="9">
-      <c r="A9" s="486"/>
-      <c r="B9" s="487"/>
-      <c r="C9" s="488"/>
-      <c r="D9" s="489"/>
-      <c r="E9" s="490"/>
-      <c r="F9" s="491"/>
-      <c r="G9" s="492"/>
-      <c r="H9" s="493"/>
-      <c r="I9" s="494"/>
-      <c r="J9" s="495"/>
-      <c r="K9" s="496"/>
-      <c r="L9" s="497"/>
-      <c r="M9" s="498"/>
-      <c r="N9" s="499"/>
-      <c r="O9" s="337"/>
-      <c r="P9" s="338"/>
-      <c r="Q9" s="339"/>
-      <c r="R9" s="181"/>
-      <c r="S9" s="182"/>
-      <c r="T9" s="183"/>
-      <c r="U9" s="184"/>
-      <c r="V9" s="185"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="188"/>
-      <c r="Z9" s="189"/>
-      <c r="AA9" s="190"/>
-      <c r="AB9" s="191" t="n"/>
-      <c r="AC9" s="44" t="n"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="46" t="n"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="663"/>
+      <c r="A9" s="485"/>
+      <c r="B9" s="486"/>
+      <c r="C9" s="487"/>
+      <c r="D9" s="488"/>
+      <c r="E9" s="489"/>
+      <c r="F9" s="490"/>
+      <c r="G9" s="491"/>
+      <c r="H9" s="492"/>
+      <c r="I9" s="493"/>
+      <c r="J9" s="494"/>
+      <c r="K9" s="495"/>
+      <c r="L9" s="496"/>
+      <c r="M9" s="497"/>
+      <c r="N9" s="498"/>
+      <c r="O9" s="336"/>
+      <c r="P9" s="337"/>
+      <c r="Q9" s="338"/>
+      <c r="R9" s="180"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="182"/>
+      <c r="U9" s="183"/>
+      <c r="V9" s="184"/>
+      <c r="W9" s="185"/>
+      <c r="X9" s="186"/>
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="189"/>
+      <c r="AB9" s="190" t="n"/>
+      <c r="AC9" s="43" t="n"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="45" t="n"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="662"/>
     </row>
     <row r="10">
-      <c r="A10" s="500"/>
-      <c r="B10" s="501"/>
-      <c r="C10" s="502"/>
-      <c r="D10" s="503"/>
-      <c r="E10" s="504"/>
-      <c r="F10" s="505"/>
-      <c r="G10" s="506"/>
-      <c r="H10" s="507"/>
-      <c r="I10" s="508"/>
-      <c r="J10" s="509"/>
-      <c r="K10" s="510"/>
-      <c r="L10" s="511"/>
-      <c r="M10" s="512"/>
-      <c r="N10" s="513"/>
-      <c r="O10" s="340"/>
-      <c r="P10" s="341"/>
-      <c r="Q10" s="342"/>
-      <c r="R10" s="192"/>
-      <c r="S10" s="193"/>
-      <c r="T10" s="194"/>
-      <c r="U10" s="195"/>
-      <c r="V10" s="196"/>
-      <c r="W10" s="197"/>
-      <c r="X10" s="198"/>
-      <c r="Y10" s="199"/>
-      <c r="Z10" s="200"/>
-      <c r="AA10" s="201"/>
-      <c r="AB10" s="202" t="n"/>
-      <c r="AC10" s="48" t="n"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="50" t="n"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="664"/>
+      <c r="A10" s="499"/>
+      <c r="B10" s="500"/>
+      <c r="C10" s="501"/>
+      <c r="D10" s="502"/>
+      <c r="E10" s="503"/>
+      <c r="F10" s="504"/>
+      <c r="G10" s="505"/>
+      <c r="H10" s="506"/>
+      <c r="I10" s="507"/>
+      <c r="J10" s="508"/>
+      <c r="K10" s="509"/>
+      <c r="L10" s="510"/>
+      <c r="M10" s="511"/>
+      <c r="N10" s="512"/>
+      <c r="O10" s="339"/>
+      <c r="P10" s="340"/>
+      <c r="Q10" s="341"/>
+      <c r="R10" s="191"/>
+      <c r="S10" s="192"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="194"/>
+      <c r="V10" s="195"/>
+      <c r="W10" s="196"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="198"/>
+      <c r="Z10" s="199"/>
+      <c r="AA10" s="200"/>
+      <c r="AB10" s="201" t="n"/>
+      <c r="AC10" s="47" t="n"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="49" t="n"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="663"/>
     </row>
     <row r="11">
-      <c r="A11" s="514"/>
-      <c r="B11" s="515"/>
-      <c r="C11" s="516"/>
-      <c r="D11" s="517"/>
-      <c r="E11" s="518"/>
-      <c r="F11" s="519"/>
-      <c r="G11" s="520"/>
-      <c r="H11" s="521"/>
-      <c r="I11" s="522"/>
-      <c r="J11" s="523"/>
-      <c r="K11" s="524"/>
-      <c r="L11" s="525"/>
-      <c r="M11" s="526"/>
-      <c r="N11" s="527"/>
-      <c r="O11" s="343"/>
-      <c r="P11" s="344"/>
-      <c r="Q11" s="345"/>
-      <c r="R11" s="203"/>
-      <c r="S11" s="204"/>
-      <c r="T11" s="205"/>
-      <c r="U11" s="206"/>
-      <c r="V11" s="207"/>
-      <c r="W11" s="208"/>
-      <c r="X11" s="209"/>
-      <c r="Y11" s="210"/>
-      <c r="Z11" s="211"/>
-      <c r="AA11" s="212"/>
-      <c r="AB11" s="213" t="n"/>
-      <c r="AC11" s="52" t="n"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="54" t="n"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="665"/>
+      <c r="A11" s="513"/>
+      <c r="B11" s="514"/>
+      <c r="C11" s="515"/>
+      <c r="D11" s="516"/>
+      <c r="E11" s="517"/>
+      <c r="F11" s="518"/>
+      <c r="G11" s="519"/>
+      <c r="H11" s="520"/>
+      <c r="I11" s="521"/>
+      <c r="J11" s="522"/>
+      <c r="K11" s="523"/>
+      <c r="L11" s="524"/>
+      <c r="M11" s="525"/>
+      <c r="N11" s="526"/>
+      <c r="O11" s="342"/>
+      <c r="P11" s="343"/>
+      <c r="Q11" s="344"/>
+      <c r="R11" s="202"/>
+      <c r="S11" s="203"/>
+      <c r="T11" s="204"/>
+      <c r="U11" s="205"/>
+      <c r="V11" s="206"/>
+      <c r="W11" s="207"/>
+      <c r="X11" s="208"/>
+      <c r="Y11" s="209"/>
+      <c r="Z11" s="210"/>
+      <c r="AA11" s="211"/>
+      <c r="AB11" s="212" t="n"/>
+      <c r="AC11" s="51" t="n"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="53" t="n"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="664"/>
     </row>
     <row r="12">
-      <c r="A12" s="528"/>
-      <c r="B12" s="529"/>
-      <c r="C12" s="530"/>
-      <c r="D12" s="531"/>
-      <c r="E12" s="532"/>
-      <c r="F12" s="533"/>
-      <c r="G12" s="534"/>
-      <c r="H12" s="535"/>
-      <c r="I12" s="536"/>
-      <c r="J12" s="537"/>
-      <c r="K12" s="538"/>
-      <c r="L12" s="539"/>
-      <c r="M12" s="540"/>
-      <c r="N12" s="541"/>
-      <c r="O12" s="346"/>
-      <c r="P12" s="347"/>
-      <c r="Q12" s="348"/>
-      <c r="R12" s="214"/>
-      <c r="S12" s="215"/>
-      <c r="T12" s="216"/>
-      <c r="U12" s="217"/>
-      <c r="V12" s="218"/>
-      <c r="W12" s="219"/>
-      <c r="X12" s="220"/>
-      <c r="Y12" s="221"/>
-      <c r="Z12" s="222"/>
-      <c r="AA12" s="223"/>
-      <c r="AB12" s="224" t="n"/>
-      <c r="AC12" s="56" t="n"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="58" t="n"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="666"/>
+      <c r="A12" s="527"/>
+      <c r="B12" s="528"/>
+      <c r="C12" s="529"/>
+      <c r="D12" s="530"/>
+      <c r="E12" s="531"/>
+      <c r="F12" s="532"/>
+      <c r="G12" s="533"/>
+      <c r="H12" s="534"/>
+      <c r="I12" s="535"/>
+      <c r="J12" s="536"/>
+      <c r="K12" s="537"/>
+      <c r="L12" s="538"/>
+      <c r="M12" s="539"/>
+      <c r="N12" s="540"/>
+      <c r="O12" s="345"/>
+      <c r="P12" s="346"/>
+      <c r="Q12" s="347"/>
+      <c r="R12" s="213"/>
+      <c r="S12" s="214"/>
+      <c r="T12" s="215"/>
+      <c r="U12" s="216"/>
+      <c r="V12" s="217"/>
+      <c r="W12" s="218"/>
+      <c r="X12" s="219"/>
+      <c r="Y12" s="220"/>
+      <c r="Z12" s="221"/>
+      <c r="AA12" s="222"/>
+      <c r="AB12" s="223" t="n"/>
+      <c r="AC12" s="55" t="n"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="57" t="n"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="665"/>
     </row>
     <row r="13">
-      <c r="A13" s="542"/>
-      <c r="B13" s="543"/>
-      <c r="C13" s="544"/>
-      <c r="D13" s="545"/>
-      <c r="E13" s="546"/>
-      <c r="F13" s="547"/>
-      <c r="G13" s="548"/>
-      <c r="H13" s="549"/>
-      <c r="I13" s="550"/>
-      <c r="J13" s="551"/>
-      <c r="K13" s="552"/>
-      <c r="L13" s="553"/>
-      <c r="M13" s="554"/>
-      <c r="N13" s="555"/>
-      <c r="O13" s="349"/>
-      <c r="P13" s="350"/>
-      <c r="Q13" s="351"/>
-      <c r="R13" s="225"/>
-      <c r="S13" s="226"/>
-      <c r="T13" s="227"/>
-      <c r="U13" s="228"/>
-      <c r="V13" s="229"/>
-      <c r="W13" s="230"/>
-      <c r="X13" s="231"/>
-      <c r="Y13" s="232"/>
-      <c r="Z13" s="233"/>
-      <c r="AA13" s="234"/>
-      <c r="AB13" s="235" t="n"/>
-      <c r="AC13" s="60" t="n"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="62" t="n"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="667"/>
+      <c r="A13" s="541"/>
+      <c r="B13" s="542"/>
+      <c r="C13" s="543"/>
+      <c r="D13" s="544"/>
+      <c r="E13" s="545"/>
+      <c r="F13" s="546"/>
+      <c r="G13" s="547"/>
+      <c r="H13" s="548"/>
+      <c r="I13" s="549"/>
+      <c r="J13" s="550"/>
+      <c r="K13" s="551"/>
+      <c r="L13" s="552"/>
+      <c r="M13" s="553"/>
+      <c r="N13" s="554"/>
+      <c r="O13" s="348"/>
+      <c r="P13" s="349"/>
+      <c r="Q13" s="350"/>
+      <c r="R13" s="224"/>
+      <c r="S13" s="225"/>
+      <c r="T13" s="226"/>
+      <c r="U13" s="227"/>
+      <c r="V13" s="228"/>
+      <c r="W13" s="229"/>
+      <c r="X13" s="230"/>
+      <c r="Y13" s="231"/>
+      <c r="Z13" s="232"/>
+      <c r="AA13" s="233"/>
+      <c r="AB13" s="234" t="n"/>
+      <c r="AC13" s="59" t="n"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="666"/>
     </row>
     <row r="14">
-      <c r="A14" s="556"/>
-      <c r="B14" s="557"/>
-      <c r="C14" s="558"/>
-      <c r="D14" s="559"/>
-      <c r="E14" s="560"/>
-      <c r="F14" s="561"/>
-      <c r="G14" s="562"/>
-      <c r="H14" s="563"/>
-      <c r="I14" s="564"/>
-      <c r="J14" s="565"/>
-      <c r="K14" s="566"/>
-      <c r="L14" s="567"/>
-      <c r="M14" s="568"/>
-      <c r="N14" s="569"/>
-      <c r="O14" s="352"/>
-      <c r="P14" s="353"/>
-      <c r="Q14" s="354"/>
-      <c r="R14" s="236"/>
-      <c r="S14" s="237"/>
-      <c r="T14" s="238"/>
-      <c r="U14" s="239"/>
-      <c r="V14" s="240"/>
-      <c r="W14" s="241"/>
-      <c r="X14" s="242"/>
-      <c r="Y14" s="243"/>
-      <c r="Z14" s="244"/>
-      <c r="AA14" s="245"/>
-      <c r="AB14" s="246" t="n"/>
-      <c r="AC14" s="64" t="n"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="66" t="n"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="668"/>
+      <c r="A14" s="555"/>
+      <c r="B14" s="556"/>
+      <c r="C14" s="557"/>
+      <c r="D14" s="558"/>
+      <c r="E14" s="559"/>
+      <c r="F14" s="560"/>
+      <c r="G14" s="561"/>
+      <c r="H14" s="562"/>
+      <c r="I14" s="563"/>
+      <c r="J14" s="564"/>
+      <c r="K14" s="565"/>
+      <c r="L14" s="566"/>
+      <c r="M14" s="567"/>
+      <c r="N14" s="568"/>
+      <c r="O14" s="351"/>
+      <c r="P14" s="352"/>
+      <c r="Q14" s="353"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="236"/>
+      <c r="T14" s="237"/>
+      <c r="U14" s="238"/>
+      <c r="V14" s="239"/>
+      <c r="W14" s="240"/>
+      <c r="X14" s="241"/>
+      <c r="Y14" s="242"/>
+      <c r="Z14" s="243"/>
+      <c r="AA14" s="244"/>
+      <c r="AB14" s="245" t="n"/>
+      <c r="AC14" s="63" t="n"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="65" t="n"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="667"/>
     </row>
     <row r="15">
-      <c r="A15" s="570"/>
-      <c r="B15" s="571"/>
-      <c r="C15" s="572"/>
-      <c r="D15" s="573"/>
-      <c r="E15" s="574"/>
-      <c r="F15" s="575"/>
-      <c r="G15" s="576"/>
-      <c r="H15" s="577"/>
-      <c r="I15" s="578"/>
-      <c r="J15" s="579"/>
-      <c r="K15" s="580"/>
-      <c r="L15" s="581"/>
-      <c r="M15" s="582"/>
-      <c r="N15" s="583"/>
-      <c r="O15" s="355"/>
-      <c r="P15" s="356"/>
-      <c r="Q15" s="357"/>
-      <c r="R15" s="247"/>
-      <c r="S15" s="248"/>
-      <c r="T15" s="249"/>
-      <c r="U15" s="250"/>
-      <c r="V15" s="251"/>
-      <c r="W15" s="252"/>
-      <c r="X15" s="253"/>
-      <c r="Y15" s="254"/>
-      <c r="Z15" s="255"/>
-      <c r="AA15" s="256"/>
-      <c r="AB15" s="257" t="n"/>
-      <c r="AC15" s="68" t="n"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="70" t="n"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="669"/>
+      <c r="A15" s="569"/>
+      <c r="B15" s="570"/>
+      <c r="C15" s="571"/>
+      <c r="D15" s="572"/>
+      <c r="E15" s="573"/>
+      <c r="F15" s="574"/>
+      <c r="G15" s="575"/>
+      <c r="H15" s="576"/>
+      <c r="I15" s="577"/>
+      <c r="J15" s="578"/>
+      <c r="K15" s="579"/>
+      <c r="L15" s="580"/>
+      <c r="M15" s="581"/>
+      <c r="N15" s="582"/>
+      <c r="O15" s="354"/>
+      <c r="P15" s="355"/>
+      <c r="Q15" s="356"/>
+      <c r="R15" s="246"/>
+      <c r="S15" s="247"/>
+      <c r="T15" s="248"/>
+      <c r="U15" s="249"/>
+      <c r="V15" s="250"/>
+      <c r="W15" s="251"/>
+      <c r="X15" s="252"/>
+      <c r="Y15" s="253"/>
+      <c r="Z15" s="254"/>
+      <c r="AA15" s="255"/>
+      <c r="AB15" s="256" t="n"/>
+      <c r="AC15" s="67" t="n"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="69" t="n"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="668"/>
     </row>
     <row r="16">
-      <c r="A16" s="584"/>
-      <c r="B16" s="585"/>
-      <c r="C16" s="586"/>
-      <c r="D16" s="587"/>
-      <c r="E16" s="588"/>
-      <c r="F16" s="589"/>
-      <c r="G16" s="590"/>
-      <c r="H16" s="591"/>
-      <c r="I16" s="592"/>
-      <c r="J16" s="593"/>
-      <c r="K16" s="594"/>
-      <c r="L16" s="595"/>
-      <c r="M16" s="596"/>
-      <c r="N16" s="597"/>
-      <c r="O16" s="358"/>
-      <c r="P16" s="359"/>
-      <c r="Q16" s="360"/>
-      <c r="R16" s="258"/>
-      <c r="S16" s="259"/>
-      <c r="T16" s="260"/>
-      <c r="U16" s="261"/>
-      <c r="V16" s="262"/>
-      <c r="W16" s="263"/>
-      <c r="X16" s="264"/>
-      <c r="Y16" s="265"/>
-      <c r="Z16" s="266"/>
-      <c r="AA16" s="267"/>
-      <c r="AB16" s="268" t="n"/>
-      <c r="AC16" s="72" t="n"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="74" t="n"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="670"/>
+      <c r="A16" s="583"/>
+      <c r="B16" s="584"/>
+      <c r="C16" s="585"/>
+      <c r="D16" s="586"/>
+      <c r="E16" s="587"/>
+      <c r="F16" s="588"/>
+      <c r="G16" s="589"/>
+      <c r="H16" s="590"/>
+      <c r="I16" s="591"/>
+      <c r="J16" s="592"/>
+      <c r="K16" s="593"/>
+      <c r="L16" s="594"/>
+      <c r="M16" s="595"/>
+      <c r="N16" s="596"/>
+      <c r="O16" s="357"/>
+      <c r="P16" s="358"/>
+      <c r="Q16" s="359"/>
+      <c r="R16" s="257"/>
+      <c r="S16" s="258"/>
+      <c r="T16" s="259"/>
+      <c r="U16" s="260"/>
+      <c r="V16" s="261"/>
+      <c r="W16" s="262"/>
+      <c r="X16" s="263"/>
+      <c r="Y16" s="264"/>
+      <c r="Z16" s="265"/>
+      <c r="AA16" s="266"/>
+      <c r="AB16" s="267" t="n"/>
+      <c r="AC16" s="71" t="n"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="73" t="n"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="669"/>
     </row>
     <row r="17">
-      <c r="A17" s="598"/>
-      <c r="B17" s="599"/>
-      <c r="C17" s="600"/>
-      <c r="D17" s="601"/>
-      <c r="E17" s="602"/>
-      <c r="F17" s="603"/>
-      <c r="G17" s="604"/>
-      <c r="H17" s="605"/>
-      <c r="I17" s="606"/>
-      <c r="J17" s="607"/>
-      <c r="K17" s="608"/>
-      <c r="L17" s="609"/>
-      <c r="M17" s="610"/>
-      <c r="N17" s="611"/>
-      <c r="O17" s="361"/>
-      <c r="P17" s="362"/>
-      <c r="Q17" s="363"/>
-      <c r="R17" s="269"/>
-      <c r="S17" s="270"/>
-      <c r="T17" s="271"/>
-      <c r="U17" s="272"/>
-      <c r="V17" s="273"/>
-      <c r="W17" s="274"/>
-      <c r="X17" s="275"/>
-      <c r="Y17" s="276"/>
-      <c r="Z17" s="277"/>
-      <c r="AA17" s="278"/>
-      <c r="AB17" s="279" t="n"/>
-      <c r="AC17" s="76" t="n"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="78" t="n"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="671"/>
+      <c r="A17" s="597"/>
+      <c r="B17" s="598"/>
+      <c r="C17" s="599"/>
+      <c r="D17" s="600"/>
+      <c r="E17" s="601"/>
+      <c r="F17" s="602"/>
+      <c r="G17" s="603"/>
+      <c r="H17" s="604"/>
+      <c r="I17" s="605"/>
+      <c r="J17" s="606"/>
+      <c r="K17" s="607"/>
+      <c r="L17" s="608"/>
+      <c r="M17" s="609"/>
+      <c r="N17" s="610"/>
+      <c r="O17" s="360"/>
+      <c r="P17" s="361"/>
+      <c r="Q17" s="362"/>
+      <c r="R17" s="268"/>
+      <c r="S17" s="269"/>
+      <c r="T17" s="270"/>
+      <c r="U17" s="271"/>
+      <c r="V17" s="272"/>
+      <c r="W17" s="273"/>
+      <c r="X17" s="274"/>
+      <c r="Y17" s="275"/>
+      <c r="Z17" s="276"/>
+      <c r="AA17" s="277"/>
+      <c r="AB17" s="278" t="n"/>
+      <c r="AC17" s="75" t="n"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="77" t="n"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="670"/>
     </row>
     <row r="18">
-      <c r="A18" s="612"/>
-      <c r="B18" s="613"/>
-      <c r="C18" s="614"/>
-      <c r="D18" s="615"/>
-      <c r="E18" s="616"/>
-      <c r="F18" s="617"/>
-      <c r="G18" s="618"/>
-      <c r="H18" s="619"/>
-      <c r="I18" s="620"/>
-      <c r="J18" s="621"/>
-      <c r="K18" s="622"/>
-      <c r="L18" s="623"/>
-      <c r="M18" s="624"/>
-      <c r="N18" s="625"/>
-      <c r="O18" s="364"/>
-      <c r="P18" s="365"/>
-      <c r="Q18" s="366"/>
-      <c r="R18" s="280"/>
-      <c r="S18" s="281"/>
-      <c r="T18" s="282"/>
-      <c r="U18" s="283"/>
-      <c r="V18" s="284"/>
-      <c r="W18" s="285"/>
-      <c r="X18" s="286"/>
-      <c r="Y18" s="287"/>
-      <c r="Z18" s="288"/>
-      <c r="AA18" s="289"/>
-      <c r="AB18" s="290" t="n"/>
-      <c r="AC18" s="80" t="n"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="82" t="n"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="672"/>
+      <c r="A18" s="611"/>
+      <c r="B18" s="612"/>
+      <c r="C18" s="613"/>
+      <c r="D18" s="614"/>
+      <c r="E18" s="615"/>
+      <c r="F18" s="616"/>
+      <c r="G18" s="617"/>
+      <c r="H18" s="618"/>
+      <c r="I18" s="619"/>
+      <c r="J18" s="620"/>
+      <c r="K18" s="621"/>
+      <c r="L18" s="622"/>
+      <c r="M18" s="623"/>
+      <c r="N18" s="624"/>
+      <c r="O18" s="363"/>
+      <c r="P18" s="364"/>
+      <c r="Q18" s="365"/>
+      <c r="R18" s="279"/>
+      <c r="S18" s="280"/>
+      <c r="T18" s="281"/>
+      <c r="U18" s="282"/>
+      <c r="V18" s="283"/>
+      <c r="W18" s="284"/>
+      <c r="X18" s="285"/>
+      <c r="Y18" s="286"/>
+      <c r="Z18" s="287"/>
+      <c r="AA18" s="288"/>
+      <c r="AB18" s="289" t="n"/>
+      <c r="AC18" s="79" t="n"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="81" t="n"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="671"/>
     </row>
     <row r="19">
-      <c r="A19" s="626"/>
-      <c r="B19" s="627"/>
-      <c r="C19" s="628"/>
-      <c r="D19" s="629"/>
-      <c r="E19" s="630"/>
-      <c r="F19" s="631"/>
-      <c r="G19" s="632"/>
-      <c r="H19" s="633"/>
-      <c r="I19" s="634"/>
-      <c r="J19" s="635"/>
-      <c r="K19" s="636"/>
-      <c r="L19" s="637"/>
-      <c r="M19" s="638"/>
-      <c r="N19" s="639"/>
-      <c r="O19" s="367"/>
-      <c r="P19" s="368"/>
-      <c r="Q19" s="369"/>
-      <c r="R19" s="291"/>
-      <c r="S19" s="292"/>
-      <c r="T19" s="293"/>
-      <c r="U19" s="294"/>
-      <c r="V19" s="295"/>
-      <c r="W19" s="296"/>
-      <c r="X19" s="297"/>
-      <c r="Y19" s="298"/>
-      <c r="Z19" s="299"/>
-      <c r="AA19" s="300"/>
-      <c r="AB19" s="301" t="n"/>
-      <c r="AC19" s="84" t="n"/>
-      <c r="AD19" s="85"/>
-      <c r="AE19" s="86" t="n"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="673"/>
+      <c r="A19" s="625"/>
+      <c r="B19" s="626"/>
+      <c r="C19" s="627"/>
+      <c r="D19" s="628"/>
+      <c r="E19" s="629"/>
+      <c r="F19" s="630"/>
+      <c r="G19" s="631"/>
+      <c r="H19" s="632"/>
+      <c r="I19" s="633"/>
+      <c r="J19" s="634"/>
+      <c r="K19" s="635"/>
+      <c r="L19" s="636"/>
+      <c r="M19" s="637"/>
+      <c r="N19" s="638"/>
+      <c r="O19" s="366"/>
+      <c r="P19" s="367"/>
+      <c r="Q19" s="368"/>
+      <c r="R19" s="290"/>
+      <c r="S19" s="291"/>
+      <c r="T19" s="292"/>
+      <c r="U19" s="293"/>
+      <c r="V19" s="294"/>
+      <c r="W19" s="295"/>
+      <c r="X19" s="296"/>
+      <c r="Y19" s="297"/>
+      <c r="Z19" s="298"/>
+      <c r="AA19" s="299"/>
+      <c r="AB19" s="300" t="n"/>
+      <c r="AC19" s="83" t="n"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="85" t="n"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="672"/>
     </row>
     <row r="20">
-      <c r="A20" s="640"/>
-      <c r="B20" s="641"/>
-      <c r="C20" s="642"/>
-      <c r="D20" s="643"/>
-      <c r="E20" s="644"/>
-      <c r="F20" s="645"/>
-      <c r="G20" s="646"/>
-      <c r="H20" s="647"/>
-      <c r="I20" s="648"/>
-      <c r="J20" s="649"/>
-      <c r="K20" s="650"/>
-      <c r="L20" s="651"/>
-      <c r="M20" s="652"/>
-      <c r="N20" s="653"/>
-      <c r="O20" s="370"/>
-      <c r="P20" s="371"/>
-      <c r="Q20" s="372"/>
-      <c r="R20" s="302"/>
-      <c r="S20" s="303"/>
-      <c r="T20" s="304"/>
-      <c r="U20" s="305"/>
-      <c r="V20" s="306"/>
-      <c r="W20" s="307"/>
-      <c r="X20" s="308"/>
-      <c r="Y20" s="309"/>
-      <c r="Z20" s="310"/>
-      <c r="AA20" s="311"/>
-      <c r="AB20" s="312" t="n"/>
-      <c r="AC20" s="88" t="n"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="90" t="n"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="674"/>
+      <c r="A20" s="639"/>
+      <c r="B20" s="640"/>
+      <c r="C20" s="641"/>
+      <c r="D20" s="642"/>
+      <c r="E20" s="643"/>
+      <c r="F20" s="644"/>
+      <c r="G20" s="645"/>
+      <c r="H20" s="646"/>
+      <c r="I20" s="647"/>
+      <c r="J20" s="648"/>
+      <c r="K20" s="649"/>
+      <c r="L20" s="650"/>
+      <c r="M20" s="651"/>
+      <c r="N20" s="652"/>
+      <c r="O20" s="369"/>
+      <c r="P20" s="370"/>
+      <c r="Q20" s="371"/>
+      <c r="R20" s="301"/>
+      <c r="S20" s="302"/>
+      <c r="T20" s="303"/>
+      <c r="U20" s="304"/>
+      <c r="V20" s="305"/>
+      <c r="W20" s="306"/>
+      <c r="X20" s="307"/>
+      <c r="Y20" s="308"/>
+      <c r="Z20" s="309"/>
+      <c r="AA20" s="310"/>
+      <c r="AB20" s="311" t="n"/>
+      <c r="AC20" s="87" t="n"/>
+      <c r="AD20" s="88"/>
+      <c r="AE20" s="89" t="n"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="673"/>
     </row>
   </sheetData>
   <mergeCells>
